--- a/Systel/TouchGFX/assets/texts/texts.xlsx
+++ b/Systel/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="88">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nm</t>
   </si>
 </sst>
 </file>
@@ -1728,10 +1740,10 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -1740,15 +1752,15 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -1762,7 +1774,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1774,15 +1786,15 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -1791,15 +1803,15 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
@@ -1811,23 +1823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
